--- a/Education_Data_Cleaned.xlsx
+++ b/Education_Data_Cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liliya/Desktop/DU/FINAL PROJECT/First Segment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\girar\PCI_Growth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2991B4-7CB4-8B43-A217-BB9B8960436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ECF3B6-82DC-4C39-A985-CF90C1138923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9CBAB598-D9B2-DF40-8089-5482A13CA308}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CBAB598-D9B2-DF40-8089-5482A13CA308}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaned Compiled Data" sheetId="5" r:id="rId1"/>
@@ -424,7 +424,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -489,7 +489,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -918,23 +918,23 @@
   <dimension ref="A1:I551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" customWidth="1"/>
+    <col min="4" max="4" width="29.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -963,7 +963,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>69</v>
       </c>
@@ -992,7 +992,7 @@
         <v>252832</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>70</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>42477</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>382146</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>121130</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2640396</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>74</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>432175</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>75</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>373309</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>67668</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>77</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>1199375</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>78</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>608116</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>79</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>89210</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>75710</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>81</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>974292</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>82</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>341920</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>83</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>158599</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>84</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>193509</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>236453</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>86</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>206821</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>88619</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>88</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>633926</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>89</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>746592</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>90</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>631421</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>91</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>362823</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>92</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>134554</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>93</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>380467</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>94</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>60504</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>95</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>106745</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>96</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>131536</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>97</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>112352</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>98</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>791379</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>99</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>145087</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>100</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>1826461</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>101</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>550201</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>102</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>34885</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>690263</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>104</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>183941</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>105</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>273670</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>106</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>898262</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>107</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>86398</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>108</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>270150</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>109</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>41026</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>110</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>359237</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>111</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>1358049</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>112</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>149514</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>113</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>57193</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>114</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>759832</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>115</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>501354</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>116</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>85995</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>117</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>341501</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>118</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>31242</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>69</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>267044</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>70</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>399652</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>72</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>139917</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>2708898</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>453233</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>383956</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>76</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>71644</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>77</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>1238449</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>78</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>619317</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>79</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>93043</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>80</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>77449</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>81</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>998530</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>82</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>351043</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>83</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>165048</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>84</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>192566</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>85</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>256050</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>86</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>212525</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>87</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>98946</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>88</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>644195</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>89</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>758377</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>90</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>650667</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>91</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>375512</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>92</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>138899</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>93</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>388760</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>94</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>57972</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>95</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>108305</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>96</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>137414</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>97</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>113565</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>98</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>796678</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>99</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>150468</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>100</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>1878131</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>101</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>585996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>102</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>31285</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>103</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>713848</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>104</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>191866</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>105</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>289504</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>106</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>906590</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>107</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>87763</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>108</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>262106</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>109</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>110</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>358347</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>111</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>1400178</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>112</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>155583</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>113</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>60702</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>114</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>792269</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>115</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>535909</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>116</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>88125</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>117</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>345869</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>118</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>31033</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>69</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>275122</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>70</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>50565</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>71</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>434828</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>72</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>139968</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>73</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>2795326</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>74</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>472537</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>75</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>407697</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>76</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>70768</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>77</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>1293133</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>78</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>666518</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>79</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>99630</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>80</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>82873</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>81</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1023005</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>82</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>358899</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>83</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>167989</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>84</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>203343</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>85</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>260166</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>86</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>226845</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>87</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>93280</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>88</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>671057</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>89</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>778232</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>90</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>661293</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>91</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>387714</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>92</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>145697</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>93</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>392282</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>94</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>63067</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>95</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>116608</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>96</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>138951</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>97</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>116087</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>98</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>832574</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>99</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>152736</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>100</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>1912388</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>101</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>605802</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>102</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>38246</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>103</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>720565</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>104</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>197377</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>105</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>302324</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>106</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>951229</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>107</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>90840</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>108</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>286986</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>109</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>110</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>372518</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>111</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>1480786</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>112</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>170574</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>113</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>60385</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>114</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>819178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>115</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>526884</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>116</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>94427</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>117</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>358151</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>118</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>29869</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>69</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>280937</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>70</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>446459</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>72</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>141182</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>73</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>2900266</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>74</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>490368</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>75</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>408967</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>76</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>79310</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>77</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>1325013</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>78</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>683272</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>79</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>100022</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>80</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>84190</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>81</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>1061497</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>82</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>371943</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
         <v>83</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>171321</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>84</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>206998</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
         <v>85</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>274416</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>86</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>230880</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>87</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>96690</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>88</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>688813</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>89</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>817961</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>90</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>698358</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>91</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>403646</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>92</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>144918</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>93</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>405014</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>94</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>64270</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>95</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>118632</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>96</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>139817</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>97</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>116950</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>98</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>851253</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>99</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>155142</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>100</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>1983987</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
         <v>101</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>653505</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>102</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>33468</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>103</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>760888</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>104</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>193505</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
         <v>105</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>310089</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>106</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>986946</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
         <v>107</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>90517</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>108</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>304598</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
         <v>109</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>42066</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>110</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>400898</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
         <v>111</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>1547230</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>112</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>174993</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>113</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>62390</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>114</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>838026</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>115</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>555995</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>116</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>98223</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>117</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>362780</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>118</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>33778</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
         <v>69</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>286349</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>70</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
         <v>71</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>456508</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
         <v>72</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>148547</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>73</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>3016508</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>74</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>512054</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>75</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>412642</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>76</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>78950</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
         <v>77</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1381841</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>78</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>710867</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>79</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>102024</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>80</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>86414</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>81</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>1096385</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>82</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>387709</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>83</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>186483</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>84</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>211792</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
         <v>85</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>272738</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>86</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>237736</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>87</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>95891</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>88</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>712369</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>89</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>838736</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>90</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>721977</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
         <v>91</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>424440</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>92</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>156703</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
         <v>93</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>424042</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>94</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>68438</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
         <v>95</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>114040</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>96</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>151990</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>97</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>124307</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>98</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>875295</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
         <v>99</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>155987</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>100</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>2016832</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>101</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>672707</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>102</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>36443</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>103</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>790471</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
         <v>104</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>205569</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
         <v>105</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>318182</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
         <v>106</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>1013605</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
         <v>107</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>89486</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>108</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>313056</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>109</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
         <v>110</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>400506</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
         <v>111</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>1644182</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
         <v>112</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>176371</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
         <v>113</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>61429</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
         <v>114</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>892467</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
         <v>115</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>579091</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>116</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>95823</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
         <v>117</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>371550</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
         <v>118</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>33776</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
         <v>69</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>288250</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
         <v>70</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>51547</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
         <v>71</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>468516</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
         <v>72</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>154406</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
         <v>73</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>3129936</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
         <v>74</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>531744</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
         <v>75</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>412111</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>76</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>84348</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
         <v>77</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>1471999</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
         <v>78</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>755664</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
         <v>79</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>104161</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
         <v>80</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>87346</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
         <v>81</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>1095843</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>82</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>390897</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
         <v>83</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>179556</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
         <v>84</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>214568</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
         <v>85</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>289309</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
         <v>86</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>247319</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
         <v>87</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>102040</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
         <v>88</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>725262</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
         <v>89</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>864974</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
         <v>90</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>724927</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
         <v>91</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>436423</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
         <v>92</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>153563</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
         <v>93</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>433938</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="7" t="s">
         <v>94</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>72039</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
         <v>95</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>127732</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
         <v>96</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>158733</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
         <v>97</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>128800</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
         <v>98</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>880766</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
         <v>99</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>166346</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
         <v>100</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>2051385</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
         <v>101</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>713645</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
         <v>102</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
         <v>103</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>786107</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
         <v>104</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>208239</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
         <v>105</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>335423</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
         <v>106</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>1029524</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
         <v>107</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>97687</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
         <v>108</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>314398</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
         <v>109</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
         <v>110</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>431100</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
         <v>111</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>1689108</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="7" t="s">
         <v>112</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>186410</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="7" t="s">
         <v>113</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>64248</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="7" t="s">
         <v>114</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>892827</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
         <v>115</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>611186</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
         <v>116</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>102158</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="7" t="s">
         <v>117</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>369914</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="7" t="s">
         <v>118</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>34926</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
         <v>69</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>308842</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="7" t="s">
         <v>70</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>50716</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
         <v>71</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>500115</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
         <v>72</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>163225</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
         <v>73</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>3234306</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
         <v>74</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>558608</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
         <v>75</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>412219</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
         <v>76</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>83352</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
         <v>77</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>1532549</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
         <v>78</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>796001</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
         <v>79</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>104743</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
         <v>80</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>97047</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
         <v>81</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>1128445</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
         <v>82</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>408553</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
         <v>83</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>194920</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
         <v>84</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>230565</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
         <v>85</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>283260</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
         <v>86</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>254607</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
         <v>87</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>109704</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="7" t="s">
         <v>88</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>760638</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
         <v>89</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>896051</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
         <v>90</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>747093</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="7" t="s">
         <v>91</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>436859</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="7" t="s">
         <v>92</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>161398</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="7" t="s">
         <v>93</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>443139</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="7" t="s">
         <v>94</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>71662</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="7" t="s">
         <v>95</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>129041</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="7" t="s">
         <v>96</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>163228</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="7" t="s">
         <v>97</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>133217</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="7" t="s">
         <v>98</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>919284</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="7" t="s">
         <v>99</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>162542</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="7" t="s">
         <v>100</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>2118193</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="7" t="s">
         <v>101</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>745490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
         <v>102</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>38745</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
         <v>103</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>817476</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
         <v>104</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>215743</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
         <v>105</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>362022</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
         <v>106</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1070766</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
         <v>107</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>99070</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
         <v>108</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>331420</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
         <v>109</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>52259</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
         <v>110</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>426800</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
         <v>111</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>1773009</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
         <v>112</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>199805</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
         <v>113</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>66984</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
         <v>114</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>936934</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
         <v>115</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>657201</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
         <v>116</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>106514</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
         <v>117</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>401672</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
         <v>118</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>38072</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
         <v>69</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>316685</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
         <v>70</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>52240</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
         <v>71</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>520030</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
         <v>72</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>168820</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
         <v>73</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>3359798</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
         <v>74</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>579803</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
         <v>75</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>430816</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
         <v>76</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>90641</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
         <v>77</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>1614992</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
         <v>78</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>819867</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="7" t="s">
         <v>79</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>111687</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
         <v>80</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>94858</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
         <v>81</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>1167902</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
         <v>82</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>436190</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="7" t="s">
         <v>83</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>199190</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="7" t="s">
         <v>84</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>239200</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="7" t="s">
         <v>85</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>299636</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="7" t="s">
         <v>86</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>260086</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
         <v>87</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>117747</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="7" t="s">
         <v>88</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>763490</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="7" t="s">
         <v>89</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>932085</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="7" t="s">
         <v>90</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>784189</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="7" t="s">
         <v>91</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>473246</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="7" t="s">
         <v>92</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>163277</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="7" t="s">
         <v>93</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>462042</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="7" t="s">
         <v>94</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>76491</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="7" t="s">
         <v>95</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>135450</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="7" t="s">
         <v>96</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>173170</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="7" t="s">
         <v>97</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>137142</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
         <v>98</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>969808</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
         <v>99</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>164505</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
         <v>100</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>2185242</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="7" t="s">
         <v>101</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>783940</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
         <v>102</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>44394</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
         <v>103</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>849416</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
         <v>104</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>223293</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
         <v>105</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>369257</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
         <v>106</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>1119839</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
         <v>107</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>96825</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
         <v>108</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>357316</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
         <v>109</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>51935</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
         <v>110</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>463322</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
         <v>111</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>1861178</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
         <v>112</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>215638</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" s="7" t="s">
         <v>113</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>69392</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
         <v>114</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>967026</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="7" t="s">
         <v>115</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>680727</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" s="7" t="s">
         <v>116</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>102078</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" s="7" t="s">
         <v>117</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>419854</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" s="7" t="s">
         <v>118</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" s="7" t="s">
         <v>69</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>315951</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" s="7" t="s">
         <v>70</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>56793</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="7" t="s">
         <v>71</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>540461</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" s="7" t="s">
         <v>72</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>174853</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" s="7" t="s">
         <v>73</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>3466224</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" s="7" t="s">
         <v>74</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>611560</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="7" t="s">
         <v>75</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>443202</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" s="7" t="s">
         <v>76</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>88814</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
         <v>77</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>1726771</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" s="7" t="s">
         <v>78</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>861716</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" s="7" t="s">
         <v>79</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>114745</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="7" t="s">
         <v>80</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>102800</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" s="7" t="s">
         <v>81</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>1219018</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" s="7" t="s">
         <v>82</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>439255</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" s="7" t="s">
         <v>83</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>197098</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
         <v>84</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>243775</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" s="7" t="s">
         <v>85</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>311695</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" s="7" t="s">
         <v>86</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>262019</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" s="7" t="s">
         <v>87</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>112561</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" s="7" t="s">
         <v>88</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>788934</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" s="7" t="s">
         <v>89</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>973142</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" s="7" t="s">
         <v>90</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>792642</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" s="7" t="s">
         <v>91</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>477278</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" s="7" t="s">
         <v>92</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>173993</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" s="7" t="s">
         <v>93</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>480988</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" s="7" t="s">
         <v>94</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>80957</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="7" t="s">
         <v>95</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>141055</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" s="7" t="s">
         <v>96</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>182159</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" s="7" t="s">
         <v>97</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>140297</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" s="7" t="s">
         <v>98</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>989671</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" s="7" t="s">
         <v>99</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>169977</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" s="7" t="s">
         <v>100</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>2244696</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" s="7" t="s">
         <v>101</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>812123</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" s="7" t="s">
         <v>102</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" s="7" t="s">
         <v>103</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>894596</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" s="7" t="s">
         <v>104</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>233591</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" s="7" t="s">
         <v>105</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>381353</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" s="7" t="s">
         <v>106</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1139256</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" s="7" t="s">
         <v>107</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>107154</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" s="7" t="s">
         <v>108</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>362191</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" s="7" t="s">
         <v>109</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>52455</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="7" t="s">
         <v>110</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>473809</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" s="7" t="s">
         <v>111</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>1973730</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" s="7" t="s">
         <v>112</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>224884</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" s="7" t="s">
         <v>113</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>69521</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" s="7" t="s">
         <v>114</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>994416</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" s="7" t="s">
         <v>115</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>725596</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" s="7" t="s">
         <v>116</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>109489</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" s="7" t="s">
         <v>117</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>422543</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" s="7" t="s">
         <v>118</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>39134</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" s="7" t="s">
         <v>69</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>337382</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" s="7" t="s">
         <v>70</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>56574</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" s="7" t="s">
         <v>71</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>561120</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" s="7" t="s">
         <v>72</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>168182</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" s="7" t="s">
         <v>73</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>3538760</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" s="7" t="s">
         <v>74</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>637777</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" s="7" t="s">
         <v>75</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>445382</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" s="7" t="s">
         <v>76</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>93912</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" s="7" t="s">
         <v>77</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>1770994</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" s="7" t="s">
         <v>78</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>891173</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" s="7" t="s">
         <v>79</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>115230</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" s="7" t="s">
         <v>80</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>116466</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" s="7" t="s">
         <v>81</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>1222732</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" s="7" t="s">
         <v>82</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>435055</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" s="7" t="s">
         <v>83</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>202054</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" s="7" t="s">
         <v>84</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>237638</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" s="7" t="s">
         <v>85</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>312883</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" s="7" t="s">
         <v>86</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>280328</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" s="7" t="s">
         <v>87</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>123277</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" s="7" t="s">
         <v>88</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>798449</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" s="7" t="s">
         <v>89</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>984535</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" s="7" t="s">
         <v>90</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>818110</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" s="7" t="s">
         <v>91</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>490396</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" s="7" t="s">
         <v>92</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>171039</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" s="7" t="s">
         <v>93</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>495473</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" s="7" t="s">
         <v>94</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>77839</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" s="7" t="s">
         <v>95</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>145428</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" s="7" t="s">
         <v>96</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>193082</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" s="7" t="s">
         <v>97</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>143601</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" s="7" t="s">
         <v>98</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>995984</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" s="7" t="s">
         <v>99</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>173317</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" s="7" t="s">
         <v>100</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>2267778</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" s="7" t="s">
         <v>101</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>849765</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" s="7" t="s">
         <v>102</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>44870</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" s="7" t="s">
         <v>103</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>891640</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" s="7" t="s">
         <v>104</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>238621</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" s="7" t="s">
         <v>105</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>404405</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" s="7" t="s">
         <v>106</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>1155775</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" s="7" t="s">
         <v>107</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>104188</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" s="7" t="s">
         <v>108</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>398063</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" s="7" t="s">
         <v>109</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>53553</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" s="7" t="s">
         <v>110</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>503124</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" s="7" t="s">
         <v>111</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>2025736</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" s="7" t="s">
         <v>112</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>216552</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" s="7" t="s">
         <v>113</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>71257</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" s="7" t="s">
         <v>114</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>1012270</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" s="7" t="s">
         <v>115</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>750904</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" s="7" t="s">
         <v>116</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>108020</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" s="7" t="s">
         <v>117</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>428501</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" s="7" t="s">
         <v>118</v>
       </c>
@@ -15463,154 +15463,154 @@
         <v>40374</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502"/>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503"/>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504"/>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505"/>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506"/>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507"/>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508"/>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509"/>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510"/>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511"/>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551"/>
     </row>
   </sheetData>
@@ -15639,62 +15639,62 @@
       <selection activeCell="A58" sqref="A58:AZ65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.69921875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.19921875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.19921875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="24" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2014</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>388962</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2014</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>8369</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2014</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>20473</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2014</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>106759</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2014</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>108417</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2014</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>41611</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2014</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>69557</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>33776</v>
       </c>
     </row>
-    <row r="10" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2015</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>388747</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2015</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>7773</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2015</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>22652</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2015</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>111830</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2015</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>102246</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2015</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>42212</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2015</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>67108</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2015</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>34926</v>
       </c>
     </row>
-    <row r="18" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2016</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>390794</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2016</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2016</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>20940</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2016</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>114624</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2016</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>97961</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2016</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2016</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>67845</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2016</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>38072</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2019</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>389847</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2019</v>
       </c>
@@ -19960,7 +19960,7 @@
         <v>6546</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2019</v>
       </c>
@@ -20118,7 +20118,7 @@
         <v>14704</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2019</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>117501</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2019</v>
       </c>
@@ -20434,7 +20434,7 @@
         <v>93505</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2019</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2019</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>73183</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>2019</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>40374</v>
       </c>
     </row>
-    <row r="34" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2013</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>383914</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2013</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>5641</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2013</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>19196</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2013</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>109099</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>2013</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>106714</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>2013</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>41261</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2013</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>68225</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>2013</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v>33778</v>
       </c>
     </row>
-    <row r="42" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2012</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>380942</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2012</v>
       </c>
@@ -22488,7 +22488,7 @@
         <v>8713</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2012</v>
       </c>
@@ -22646,7 +22646,7 @@
         <v>22941</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>2012</v>
       </c>
@@ -22804,7 +22804,7 @@
         <v>115631</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2012</v>
       </c>
@@ -22962,7 +22962,7 @@
         <v>101324</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2012</v>
       </c>
@@ -23120,7 +23120,7 @@
         <v>38055</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2012</v>
       </c>
@@ -23278,7 +23278,7 @@
         <v>64409</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2012</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>29869</v>
       </c>
     </row>
-    <row r="50" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2011</v>
       </c>
@@ -23594,7 +23594,7 @@
         <v>375608</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2011</v>
       </c>
@@ -23752,7 +23752,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>2011</v>
       </c>
@@ -23910,7 +23910,7 @@
         <v>23238</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2011</v>
       </c>
@@ -24068,7 +24068,7 @@
         <v>115521</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>2011</v>
       </c>
@@ -24226,7 +24226,7 @@
         <v>99998</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>2011</v>
       </c>
@@ -24384,7 +24384,7 @@
         <v>37078</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>2011</v>
       </c>
@@ -24542,7 +24542,7 @@
         <v>61815</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2011</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>31033</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2010</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>370951</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2010</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>9676</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2010</v>
       </c>
@@ -25174,7 +25174,7 @@
         <v>18962</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2010</v>
       </c>
@@ -25332,7 +25332,7 @@
         <v>111983</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2010</v>
       </c>
@@ -25490,7 +25490,7 @@
         <v>101199</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2010</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2010</v>
       </c>
@@ -25806,7 +25806,7 @@
         <v>58232</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2010</v>
       </c>
@@ -25985,12 +25985,12 @@
       <selection activeCell="A3" sqref="A3:AZ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -25999,7 +25999,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -26157,7 +26157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2010</v>
       </c>
@@ -26315,7 +26315,7 @@
         <v>370951</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -26473,7 +26473,7 @@
         <v>9676</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -26631,7 +26631,7 @@
         <v>18962</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -26789,7 +26789,7 @@
         <v>111983</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -26947,7 +26947,7 @@
         <v>101199</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -27105,7 +27105,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -27263,7 +27263,7 @@
         <v>58232</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -27421,7 +27421,7 @@
         <v>31242</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -27435,7 +27435,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -27449,7 +27449,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -27463,7 +27463,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -27477,7 +27477,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -27491,7 +27491,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -27505,7 +27505,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -27519,7 +27519,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -27533,8 +27533,8 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="C1">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="percent">
